--- a/pubmed_validation_sheets/23412183 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/23412183 DISNET VALIDATION.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grard\Desktop\PUBMED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CC8FD-0831-40F1-9F1D-D77F9E507E50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1DFD60-8BE2-D542-A15A-2ACA5216C62B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="38780" yWindow="460" windowWidth="20500" windowHeight="21140" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,15 +185,6 @@
     <t>Prognosis good</t>
   </si>
   <si>
-    <t>nerve</t>
-  </si>
-  <si>
-    <t>Neural tissue, NOS</t>
-  </si>
-  <si>
-    <t>[tisu]</t>
-  </si>
-  <si>
     <t>infection</t>
   </si>
   <si>
@@ -207,6 +201,15 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>fistula</t>
+  </si>
+  <si>
+    <t>Fistula, NOS</t>
+  </si>
+  <si>
+    <t>[anab]</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,24 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -716,6 +701,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,53 +1036,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:14" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1128,10 +1134,14 @@
         <v>10</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1159,8 +1169,12 @@
       <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1188,8 +1202,12 @@
       <c r="I6" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1217,8 +1235,12 @@
       <c r="I7" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1246,8 +1268,12 @@
       <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1273,10 +1299,14 @@
         <v>10</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1302,10 +1332,14 @@
         <v>10</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1331,10 +1365,14 @@
         <v>10</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1360,10 +1398,14 @@
         <v>10</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1391,8 +1433,12 @@
       <c r="I13" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1420,8 +1466,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1449,8 +1499,12 @@
       <c r="I15" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1478,8 +1532,12 @@
       <c r="I16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1507,8 +1565,12 @@
       <c r="I17" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1536,8 +1598,12 @@
       <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1548,7 +1614,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E19" s="10" t="b">
         <v>0</v>
@@ -1565,19 +1631,23 @@
       <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
@@ -1594,78 +1664,91 @@
       <c r="I20" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="34" t="s">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="36" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="42" t="s">
+    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{314B0BC4-48F9-2449-95D9-64B33CAB15AB}">
+    <sortState ref="A4:I19">
+      <sortCondition ref="A3:A19"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
